--- a/Assets/Resources/PopUpdata/PopUpData.xlsx
+++ b/Assets/Resources/PopUpdata/PopUpData.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADEBC8-97F9-4511-A5FF-8F1F0A72B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B352D3-2835-4DE4-A0AA-D4E008B4FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBD093CB-62EE-4792-988E-342972FF87DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DBD093CB-62EE-4792-988E-342972FF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0F9EF-6127-4001-8E14-B7EAAD380946}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,528 +568,67 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="C2">
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
-        <v>39</v>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
+      <c r="E4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>0.2</v>
-      </c>
-      <c r="D11">
-        <v>0.3</v>
-      </c>
-      <c r="E11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
-        <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>0.3</v>
-      </c>
-      <c r="E12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>0.3</v>
-      </c>
-      <c r="E21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-      <c r="D25">
-        <v>0.3</v>
-      </c>
-      <c r="E25">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1094,4 +636,487 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79792572-3F40-497E-9D24-BC47DB202FDE}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B8E170-2144-4171-AF72-2B0BE22A6B82}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759F118-6AF1-4A3C-B93B-67000D72192F}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/PopUpdata/PopUpData.xlsx
+++ b/Assets/Resources/PopUpdata/PopUpData.xlsx
@@ -40,10 +40,10 @@
     <t>Gray</t>
   </si>
   <si>
-    <t>Blue</t>
+    <t>Green</t>
   </si>
   <si>
-    <t>Purple</t>
+    <t>Blue</t>
   </si>
   <si>
     <t>Yellow</t>
@@ -450,7 +450,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">

--- a/Assets/Resources/PopUpdata/PopUpData.xlsx
+++ b/Assets/Resources/PopUpdata/PopUpData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\My-project\Assets\Resources\PopUpdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271E1D9-F29E-4B03-A740-36DE081BEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5354633-A406-4C0A-82D5-749A51D9A83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DBD093CB-62EE-4792-988E-342972FF87DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DBD093CB-62EE-4792-988E-342972FF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waepon</t>
-  </si>
-  <si>
     <t>Bottom</t>
   </si>
   <si>
@@ -186,6 +183,10 @@
   </si>
   <si>
     <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,16 +566,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -599,7 +600,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>39</v>
@@ -613,7 +614,7 @@
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -627,7 +628,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -644,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79792572-3F40-497E-9D24-BC47DB202FDE}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -822,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B8E170-2144-4171-AF72-2B0BE22A6B82}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,25 +834,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -961,6 +962,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -979,28 +981,28 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
